--- a/biology/Botanique/Oryzoideae/Oryzoideae.xlsx
+++ b/biology/Botanique/Oryzoideae/Oryzoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oryzoideae (synonyme : Ehrhartoideae) sont une sous-famille de plantes monocotylédones de la famille des Poaceae. 
-Elle regroupe 20 genres et environ 120 espèces, et notamment l'une des plus importantes céréales, le riz cultivé[2].
+Elle regroupe 20 genres et environ 120 espèces, et notamment l'une des plus importantes céréales, le riz cultivé.
 Parmi les graminées, cette sous-famille est l'une des trois qui sont rattachées au clade BEP, riche en espèces qui ont toute une photosynthèse en C3.
-C'est la lignée de base de cette sous-famille[3],[4].
-Elle comprend quatre tribus et un genre, Suddia, en position indéterminée (incertae sedis), probablement des Phyllorachideae[2].
-Des analyses phylogénétiques ont permis de déterminer l'ordre de branchement de ces clades au sein de cette sous-famille[2] : 
+C'est la lignée de base de cette sous-famille,.
+Elle comprend quatre tribus et un genre, Suddia, en position indéterminée (incertae sedis), probablement des Phyllorachideae.
+Des analyses phylogénétiques ont permis de déterminer l'ordre de branchement de ces clades au sein de cette sous-famille : 
 </t>
         </is>
       </c>
@@ -516,12 +528,14 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oryzoideae sont des plantes herbacées, parfois suffrutescentes, annuelles ou vivaces, rhizomateuses ou stolonifères.
-Elles présentent des inflorescences en panicules ou en grappes, composées d'épillets unisexués ou bisexués. Ces épillets comprennent de 0 à 2 fleurons stériles, et toujours un fleuron fertile hermaphrodite[5].
+Elles présentent des inflorescences en panicules ou en grappes, composées d'épillets unisexués ou bisexués. Ces épillets comprennent de 0 à 2 fleurons stériles, et toujours un fleuron fertile hermaphrodite.
 Les épillets sont à glumes réduites. La fleur a un modèle de base à six étamines.
-Le nombre chromosomique de base est x= 12 (mais x=10 chez Microlaena et x=15 chez Zizania)[5].
+Le nombre chromosomique de base est x= 12 (mais x=10 chez Microlaena et x=15 chez Zizania).
 </t>
         </is>
       </c>
@@ -550,10 +564,12 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Oryzoideae pourraient s'être individualisées, selon des données moléculaires, depuis environ 30 à 35 millions d'années[6],[7].
-Une espèce fossile, Archaeoleersia nebraskensis, qui date de l'oligocène, a été décrite[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Oryzoideae pourraient s'être individualisées, selon des données moléculaires, depuis environ 30 à 35 millions d'années,.
+Une espèce fossile, Archaeoleersia nebraskensis, qui date de l'oligocène, a été décrite.
 </t>
         </is>
       </c>
@@ -584,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des tribus, sous-tribus, genres, espèces et variétés
-Selon NCBI  (12 juin 2016)[9] :
+          <t>Liste des tribus, sous-tribus, genres, espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 juin 2016) :
 tribu Ehrharteae
 genre Ehrharta
 Ehrharta barbinodis
